--- a/biology/Botanique/Dipteryx_alata/Dipteryx_alata.xlsx
+++ b/biology/Botanique/Dipteryx_alata/Dipteryx_alata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dipteryx alata est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique du Sud.
@@ -514,10 +526,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le houppier est dense et de forme arrondie. Les feuilles sont composées pennées, comptant de 6 à 12 folioles d'un vert intense. Les fleurs, petites et groupées en épi, sont blanchâtres. Elles sont visibles d'octobre à janvier. Le bois est lourd et très résistant.
-Le fruit  est une drupe ovoïde, légèrement aplatie et de couleur brune[3], d'environ 7 cm de long, à la pulpe odorante qui est consommée par le bétail et les animaux sauvages. Il contient seule graine (amande), elle aussi comestible et dont le goût évoque la cacahuète. On lui attribue localement des vertus aphrodisiaques.
+Le fruit  est une drupe ovoïde, légèrement aplatie et de couleur brune, d'environ 7 cm de long, à la pulpe odorante qui est consommée par le bétail et les animaux sauvages. Il contient seule graine (amande), elle aussi comestible et dont le goût évoque la cacahuète. On lui attribue localement des vertus aphrodisiaques.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (30 novembre 2018)[1]  : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (30 novembre 2018)  : 
 Coumarouna alata (Vogel) Taub.
 Cumaruna alata (Vogel) Kuntze
 Dipteryx pteropus Mart.
